--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482A33C-BFB8-4ABF-9DDF-3D45E71AB739}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442C8E9-47AB-4D5D-8937-9185FADF5753}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{CD95BF0C-4912-4F94-98F3-164E5F52D907}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -60,10 +60,13 @@
     <t>Fechas de correos de entrada</t>
   </si>
   <si>
-    <t>Numero(s) caso</t>
-  </si>
-  <si>
     <t>Solicitud</t>
+  </si>
+  <si>
+    <t>Numero de caso</t>
+  </si>
+  <si>
+    <t>Documentos analizados</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3A446F-1B75-4013-9CC5-E93CDDC5A4FC}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +450,10 @@
     <col min="8" max="8" width="35" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -478,13 +482,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442C8E9-47AB-4D5D-8937-9185FADF5753}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{CD95BF0C-4912-4F94-98F3-164E5F52D907}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3A446F-1B75-4013-9CC5-E93CDDC5A4FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3283A4D-0009-4B2B-83EB-6583BA0246FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -66,12 +67,18 @@
   </si>
   <si>
     <t>Documentos analizados</t>
+  </si>
+  <si>
+    <t>Entidad</t>
+  </si>
+  <si>
+    <t>TipoContrato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +459,7 @@
     <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -489,8 +496,14 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3283A4D-0009-4B2B-83EB-6583BA0246FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>TipoContrato</t>
+  </si>
+  <si>
+    <t>la identificacion no le pernece al cliente</t>
+  </si>
+  <si>
+    <t>El estado de cuenta no se encuentra en la bd.</t>
+  </si>
+  <si>
+    <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
+  </si>
+  <si>
+    <t>00185537</t>
   </si>
 </sst>
 </file>
@@ -503,8 +515,18 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,18 +72,6 @@
   </si>
   <si>
     <t>TipoContrato</t>
-  </si>
-  <si>
-    <t>la identificacion no le pernece al cliente</t>
-  </si>
-  <si>
-    <t>El estado de cuenta no se encuentra en la bd.</t>
-  </si>
-  <si>
-    <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
-  </si>
-  <si>
-    <t>00185537</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,18 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>TipoContrato</t>
-  </si>
-  <si>
-    <t>la identificacion no le pernece al cliente</t>
-  </si>
-  <si>
-    <t>El estado de cuenta no se encuentra en la bd.</t>
   </si>
   <si>
     <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
@@ -451,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,17 +509,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>TipoContrato</t>
-  </si>
-  <si>
-    <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
-  </si>
-  <si>
-    <t>00185537</t>
   </si>
 </sst>
 </file>
@@ -446,7 +440,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:M2"/>
+      <selection activeCell="H2" sqref="H2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,12 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>TipoContrato</t>
+  </si>
+  <si>
+    <t>ine ilegible</t>
+  </si>
+  <si>
+    <t>El estado de cuenta no se encuentra en la bd.</t>
+  </si>
+  <si>
+    <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
+  </si>
+  <si>
+    <t>00185537</t>
   </si>
 </sst>
 </file>
@@ -503,8 +515,18 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,18 +72,6 @@
   </si>
   <si>
     <t>TipoContrato</t>
-  </si>
-  <si>
-    <t>ine ilegible</t>
-  </si>
-  <si>
-    <t>El estado de cuenta no se encuentra en la bd.</t>
-  </si>
-  <si>
-    <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
-  </si>
-  <si>
-    <t>00185537</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O13"/>
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,18 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>TipoContrato</t>
+  </si>
+  <si>
+    <t>ine ilegible</t>
+  </si>
+  <si>
+    <t>validado</t>
+  </si>
+  <si>
+    <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
+  </si>
+  <si>
+    <t>00185537</t>
   </si>
 </sst>
 </file>
@@ -503,8 +515,18 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,18 +72,6 @@
   </si>
   <si>
     <t>TipoContrato</t>
-  </si>
-  <si>
-    <t>ine ilegible</t>
-  </si>
-  <si>
-    <t>validado</t>
-  </si>
-  <si>
-    <t>12/02/2020 09:31 a. m.;12/02/2020 09:31 a. m.;</t>
-  </si>
-  <si>
-    <t>00185537</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+      <selection activeCell="B2" sqref="B2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,18 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>TipoContrato</t>
+  </si>
+  <si>
+    <t>ine ilegible</t>
+  </si>
+  <si>
+    <t>validado</t>
+  </si>
+  <si>
+    <t>12/02/2020 10:38 a. m.;12/02/2020 10:37 a. m.;</t>
+  </si>
+  <si>
+    <t>12/02/2020 08:50 a. m.;12/02/2020 08:49 a. m.;</t>
+  </si>
+  <si>
+    <t>00185534</t>
   </si>
 </sst>
 </file>
@@ -437,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:V5"/>
@@ -503,8 +518,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="B2">
+        <v>210584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>208168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>185552</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57AE7C-3C01-4D2C-8BE5-37E14F1A14A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="4365" yWindow="3600" windowWidth="16200" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -74,25 +69,31 @@
     <t>TipoContrato</t>
   </si>
   <si>
-    <t>ine ilegible</t>
-  </si>
-  <si>
     <t>validado</t>
   </si>
   <si>
-    <t>12/02/2020 10:38 a. m.;12/02/2020 10:37 a. m.;</t>
-  </si>
-  <si>
-    <t>12/02/2020 08:50 a. m.;12/02/2020 08:49 a. m.;</t>
-  </si>
-  <si>
-    <t>00185534</t>
+    <t>validado INE</t>
+  </si>
+  <si>
+    <t>No coinciden el numero de cuenta que proporciono en su solicitud.</t>
+  </si>
+  <si>
+    <t>2/03/2020 05:28 p. m.;2/03/2020 05:27 p. m.;</t>
+  </si>
+  <si>
+    <t>00185575</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>discrecional por asesoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V5"/>
+      <selection activeCell="A2" sqref="A2:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,12 +520,18 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>210584</v>
+        <v>208168</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -533,22 +540,11 @@
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>208168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>185552</v>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88891\Documents\UiPath\Archivaldo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\ArchivaldoBot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57AE7C-3C01-4D2C-8BE5-37E14F1A14A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="3600" windowWidth="16200" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="3600" windowWidth="16200" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -67,33 +66,12 @@
   </si>
   <si>
     <t>TipoContrato</t>
-  </si>
-  <si>
-    <t>validado</t>
-  </si>
-  <si>
-    <t>validado INE</t>
-  </si>
-  <si>
-    <t>No coinciden el numero de cuenta que proporciono en su solicitud.</t>
-  </si>
-  <si>
-    <t>2/03/2020 05:28 p. m.;2/03/2020 05:27 p. m.;</t>
-  </si>
-  <si>
-    <t>00185575</t>
-  </si>
-  <si>
-    <t>pf</t>
-  </si>
-  <si>
-    <t>discrecional por asesoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W12"/>
+      <selection activeCell="A2" sqref="A2:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,33 +497,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>208168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>TipoContrato</t>
+  </si>
+  <si>
+    <t>Figura</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB12"/>
+      <selection activeCell="A2" sqref="A2:W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -495,8 +498,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
     </row>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W7"/>
+      <selection activeCell="A2" sqref="A2:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,6 +69,36 @@
   </si>
   <si>
     <t>Figura</t>
+  </si>
+  <si>
+    <t>guluba94@gmail.com</t>
+  </si>
+  <si>
+    <t>Identificacion ilegible o nombre no coincide</t>
+  </si>
+  <si>
+    <t>validado</t>
+  </si>
+  <si>
+    <t>5/03/2020 09:47 a. m.;</t>
+  </si>
+  <si>
+    <t>00185581</t>
+  </si>
+  <si>
+    <t>Casa de Bolsa</t>
+  </si>
+  <si>
+    <t>Discresional por asesoria</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>vict0riahh00@gmail.com</t>
+  </si>
+  <si>
+    <t>5/03/2020 09:25 a. m.;</t>
   </si>
 </sst>
 </file>
@@ -434,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:AC8"/>
@@ -503,8 +533,62 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>210584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>208168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>185580</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,36 +69,6 @@
   </si>
   <si>
     <t>Figura</t>
-  </si>
-  <si>
-    <t>guluba94@gmail.com</t>
-  </si>
-  <si>
-    <t>Identificacion ilegible o nombre no coincide</t>
-  </si>
-  <si>
-    <t>validado</t>
-  </si>
-  <si>
-    <t>5/03/2020 09:47 a. m.;</t>
-  </si>
-  <si>
-    <t>00185581</t>
-  </si>
-  <si>
-    <t>Casa de Bolsa</t>
-  </si>
-  <si>
-    <t>Discresional por asesoria</t>
-  </si>
-  <si>
-    <t>pf</t>
-  </si>
-  <si>
-    <t>vict0riahh00@gmail.com</t>
-  </si>
-  <si>
-    <t>5/03/2020 09:25 a. m.;</t>
   </si>
 </sst>
 </file>
@@ -464,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,62 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>210584</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>208168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>185580</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>Figura</t>
+  </si>
+  <si>
+    <t>b.gabrielad@hotmail.com</t>
+  </si>
+  <si>
+    <t>Identificacion ilegible o no se encuente vigente</t>
+  </si>
+  <si>
+    <t>No coinciden el numero de cuenta que proporciono en su solicitud.</t>
+  </si>
+  <si>
+    <t>5/03/2020 11:08 a. m.;</t>
+  </si>
+  <si>
+    <t>00185583</t>
+  </si>
+  <si>
+    <t>Casa de Bolsa</t>
+  </si>
+  <si>
+    <t>Discresional por asesoria</t>
+  </si>
+  <si>
+    <t>pf</t>
   </si>
 </sst>
 </file>
@@ -503,8 +527,33 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>207375</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,30 +69,6 @@
   </si>
   <si>
     <t>Figura</t>
-  </si>
-  <si>
-    <t>b.gabrielad@hotmail.com</t>
-  </si>
-  <si>
-    <t>Identificacion ilegible o no se encuente vigente</t>
-  </si>
-  <si>
-    <t>No coinciden el numero de cuenta que proporciono en su solicitud.</t>
-  </si>
-  <si>
-    <t>5/03/2020 11:08 a. m.;</t>
-  </si>
-  <si>
-    <t>00185583</t>
-  </si>
-  <si>
-    <t>Casa de Bolsa</t>
-  </si>
-  <si>
-    <t>Discresional por asesoria</t>
-  </si>
-  <si>
-    <t>pf</t>
   </si>
 </sst>
 </file>
@@ -460,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,33 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>207375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,30 +69,6 @@
   </si>
   <si>
     <t>Figura</t>
-  </si>
-  <si>
-    <t>b.gabrielad@hotmail.com</t>
-  </si>
-  <si>
-    <t>Identificacion ilegible o no se encuente vigente</t>
-  </si>
-  <si>
-    <t>No coinciden el numero de cuenta que proporciono en su solicitud.</t>
-  </si>
-  <si>
-    <t>5/03/2020 11:08 a. m.;</t>
-  </si>
-  <si>
-    <t>00185583</t>
-  </si>
-  <si>
-    <t>Casa de Bolsa</t>
-  </si>
-  <si>
-    <t>Discresional por asesoria</t>
-  </si>
-  <si>
-    <t>pf</t>
   </si>
 </sst>
 </file>
@@ -461,7 +437,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,33 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>207375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>Figura</t>
+  </si>
+  <si>
+    <t>b.gabrielad@hotmail.com</t>
+  </si>
+  <si>
+    <t>validado</t>
+  </si>
+  <si>
+    <t>No coinciden el numero de cuenta que proporciono en su solicitud.</t>
+  </si>
+  <si>
+    <t>validado INE</t>
+  </si>
+  <si>
+    <t>5/03/2020 11:08 a. m.;</t>
+  </si>
+  <si>
+    <t>00185583</t>
+  </si>
+  <si>
+    <t>Casa de Bolsa</t>
+  </si>
+  <si>
+    <t>Discresional por asesoria</t>
+  </si>
+  <si>
+    <t>pf</t>
   </si>
 </sst>
 </file>
@@ -437,16 +464,16 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R6"/>
+      <selection activeCell="A3" sqref="A3:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
@@ -503,8 +530,36 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>207375</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,33 +69,6 @@
   </si>
   <si>
     <t>Figura</t>
-  </si>
-  <si>
-    <t>b.gabrielad@hotmail.com</t>
-  </si>
-  <si>
-    <t>validado</t>
-  </si>
-  <si>
-    <t>No coinciden el numero de cuenta que proporciono en su solicitud.</t>
-  </si>
-  <si>
-    <t>validado INE</t>
-  </si>
-  <si>
-    <t>5/03/2020 11:08 a. m.;</t>
-  </si>
-  <si>
-    <t>00185583</t>
-  </si>
-  <si>
-    <t>Casa de Bolsa</t>
-  </si>
-  <si>
-    <t>Discresional por asesoria</t>
-  </si>
-  <si>
-    <t>pf</t>
   </si>
 </sst>
 </file>
@@ -464,7 +437,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O6"/>
+      <selection activeCell="A2" sqref="A2:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,36 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>207375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R15"/>
+      <selection activeCell="A2" sqref="A2:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,6 +69,45 @@
   </si>
   <si>
     <t>Figura</t>
+  </si>
+  <si>
+    <t>b.gabrielad@hotmail.com</t>
+  </si>
+  <si>
+    <t>validado</t>
+  </si>
+  <si>
+    <t>validado INE</t>
+  </si>
+  <si>
+    <t>00185583</t>
+  </si>
+  <si>
+    <t>Casa de Bolsa</t>
+  </si>
+  <si>
+    <t>Discresional por asesoria</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>vict0riahh00@gmail.com</t>
+  </si>
+  <si>
+    <t>00185575 ; 185580</t>
+  </si>
+  <si>
+    <t>guluba94@gmail.com</t>
+  </si>
+  <si>
+    <t>50320201108;</t>
+  </si>
+  <si>
+    <t>20320200527;;50320200925;</t>
+  </si>
+  <si>
+    <t>20320200459;</t>
   </si>
 </sst>
 </file>
@@ -434,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +489,7 @@
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
@@ -503,8 +542,106 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>207375</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>208168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>210584</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>185574</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -101,13 +101,22 @@
     <t>guluba94@gmail.com</t>
   </si>
   <si>
-    <t>50320201108;</t>
-  </si>
-  <si>
-    <t>20320200527;;50320200925;</t>
-  </si>
-  <si>
-    <t>20320200459;</t>
+    <t>5/03/202011:08a.m.;</t>
+  </si>
+  <si>
+    <t>2/03/202005:27a.m.;;5/03/202009:25a.m.;</t>
+  </si>
+  <si>
+    <t>2/03/202004:59a.m;</t>
+  </si>
+  <si>
+    <t>claudia_zaar@outlook.com</t>
+  </si>
+  <si>
+    <t>Identificacion ilegible o no se encuente vigente</t>
+  </si>
+  <si>
+    <t>5/03/202008:12a.m.;</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,6 +652,35 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>209994</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>185579</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No. Contrato</t>
   </si>
@@ -69,54 +69,6 @@
   </si>
   <si>
     <t>Figura</t>
-  </si>
-  <si>
-    <t>b.gabrielad@hotmail.com</t>
-  </si>
-  <si>
-    <t>validado</t>
-  </si>
-  <si>
-    <t>validado INE</t>
-  </si>
-  <si>
-    <t>00185583</t>
-  </si>
-  <si>
-    <t>Casa de Bolsa</t>
-  </si>
-  <si>
-    <t>Discresional por asesoria</t>
-  </si>
-  <si>
-    <t>pf</t>
-  </si>
-  <si>
-    <t>vict0riahh00@gmail.com</t>
-  </si>
-  <si>
-    <t>00185575 ; 185580</t>
-  </si>
-  <si>
-    <t>guluba94@gmail.com</t>
-  </si>
-  <si>
-    <t>5/03/202011:08a.m.;</t>
-  </si>
-  <si>
-    <t>2/03/202005:27a.m.;;5/03/202009:25a.m.;</t>
-  </si>
-  <si>
-    <t>2/03/202004:59a.m;</t>
-  </si>
-  <si>
-    <t>claudia_zaar@outlook.com</t>
-  </si>
-  <si>
-    <t>Identificacion ilegible o no se encuente vigente</t>
-  </si>
-  <si>
-    <t>5/03/202008:12a.m.;</t>
   </si>
 </sst>
 </file>
@@ -482,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,135 +503,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>207375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>208168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>210584</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>185574</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>209994</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>185579</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/LogClientes.xlsx
+++ b/Data/LogClientes.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
